--- a/reporte_estadistico/data/energia/metrics_data_tcon.xlsx
+++ b/reporte_estadistico/data/energia/metrics_data_tcon.xlsx
@@ -1,21 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\JJ\repos\research_eslatina\reporte_estadistico\data\energia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quant0</t>
+  </si>
+  <si>
+    <t>quant25</t>
+  </si>
+  <si>
+    <t>quant50</t>
+  </si>
+  <si>
+    <t>quant75</t>
+  </si>
+  <si>
+    <t>quant100</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std_dev</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Estrato1_tcon</t>
+  </si>
+  <si>
+    <t>Estrato2_tcon</t>
+  </si>
+  <si>
+    <t>Estrato3_tcon</t>
+  </si>
+  <si>
+    <t>Estrato4_tcon</t>
+  </si>
+  <si>
+    <t>Estrato5_tcon</t>
+  </si>
+  <si>
+    <t>Estrato6_tcon</t>
+  </si>
+  <si>
+    <t>totResidencial_tcon</t>
+  </si>
+  <si>
+    <t>totNoResidencial_tcon</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +133,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,132 +430,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>quant0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>quant25</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>quant50</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>quant75</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quant100</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>skewness</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>std_dev</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Estrato1_tcon</t>
-        </is>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>6.451</v>
+        <v>6.4509999999999996</v>
       </c>
       <c r="C2">
-        <v>393.133</v>
+        <v>393.13299999999998</v>
       </c>
       <c r="D2">
         <v>1403.56</v>
       </c>
       <c r="E2">
-        <v>4821.815000000001</v>
+        <v>4821.8150000000014</v>
       </c>
       <c r="F2">
-        <v>407185.4361000001</v>
+        <v>407185.43610000011</v>
       </c>
       <c r="G2">
-        <v>1.471715429394621</v>
+        <v>1.4717154293946211</v>
       </c>
       <c r="H2">
-        <v>4.318817930558891</v>
+        <v>4.3188179305588914</v>
       </c>
       <c r="I2">
         <v>1403.56</v>
       </c>
       <c r="J2">
-        <v>26542.21296296687</v>
+        <v>26542.212962966871</v>
       </c>
       <c r="K2">
-        <v>704489068.9714866</v>
+        <v>704489068.97148657</v>
       </c>
       <c r="L2">
-        <v>7200.210145953489</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Estrato2_tcon</t>
-        </is>
+        <v>7200.2101459534888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>699.057</v>
+        <v>699.05700000000002</v>
       </c>
       <c r="D3">
         <v>1631.489</v>
       </c>
       <c r="E3">
-        <v>4423.495</v>
+        <v>4423.4949999999999</v>
       </c>
       <c r="F3">
         <v>1314001.611</v>
@@ -484,7 +536,7 @@
         <v>1.532877566417117</v>
       </c>
       <c r="H3">
-        <v>4.814823422616635</v>
+        <v>4.8148234226166347</v>
       </c>
       <c r="I3">
         <v>1631.489</v>
@@ -493,17 +545,15 @@
         <v>47237.54920665174</v>
       </c>
       <c r="K3">
-        <v>2231386055.050845</v>
+        <v>2231386055.0508451</v>
       </c>
       <c r="L3">
-        <v>8019.47772</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Estrato3_tcon</t>
-        </is>
+        <v>8019.4777199999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -515,35 +565,33 @@
         <v>106.761</v>
       </c>
       <c r="E4">
-        <v>936.1005</v>
+        <v>936.10050000000001</v>
       </c>
       <c r="F4">
         <v>1324095.398</v>
       </c>
       <c r="G4">
-        <v>2.280434520589451</v>
+        <v>2.2804345205894512</v>
       </c>
       <c r="H4">
-        <v>7.822830838965617</v>
+        <v>7.8228308389656167</v>
       </c>
       <c r="I4">
         <v>106.761</v>
       </c>
       <c r="J4">
-        <v>47247.70391642706</v>
+        <v>47247.703916427061</v>
       </c>
       <c r="K4">
-        <v>2232345525.374357</v>
+        <v>2232345525.3743572</v>
       </c>
       <c r="L4">
-        <v>5182.649332093023</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Estrato4_tcon</t>
-        </is>
+        <v>5182.6493320930231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>-0.112</v>
@@ -552,13 +600,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.765</v>
+        <v>3.7650000000000001</v>
       </c>
       <c r="E5">
-        <v>74.036</v>
+        <v>74.036000000000001</v>
       </c>
       <c r="F5">
-        <v>539848.806</v>
+        <v>539848.80599999998</v>
       </c>
       <c r="G5">
         <v>3.399654728909558</v>
@@ -567,23 +615,21 @@
         <v>14.964580280861</v>
       </c>
       <c r="I5">
-        <v>3.765</v>
+        <v>3.7650000000000001</v>
       </c>
       <c r="J5">
-        <v>19551.09062904136</v>
+        <v>19551.090629041359</v>
       </c>
       <c r="K5">
-        <v>382245144.7849889</v>
+        <v>382245144.78498888</v>
       </c>
       <c r="L5">
-        <v>2013.927511627907</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Estrato5_tcon</t>
-        </is>
+        <v>2013.9275116279071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -595,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.2895</v>
+        <v>5.2895000000000003</v>
       </c>
       <c r="F6">
-        <v>221815.072</v>
+        <v>221815.07199999999</v>
       </c>
       <c r="G6">
-        <v>4.106440073551079</v>
+        <v>4.1064400735510791</v>
       </c>
       <c r="H6">
         <v>21.79417934652167</v>
@@ -610,20 +656,18 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9651.703749221817</v>
+        <v>9651.7037492218169</v>
       </c>
       <c r="K6">
         <v>93155385.26274246</v>
       </c>
       <c r="L6">
-        <v>919.8702381395349</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Estrato6_tcon</t>
-        </is>
+        <v>919.87023813953488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -638,38 +682,36 @@
         <v>1.885</v>
       </c>
       <c r="F7">
-        <v>242085.648</v>
+        <v>242085.64799999999</v>
       </c>
       <c r="G7">
-        <v>4.22530998459658</v>
+        <v>4.2253099845965796</v>
       </c>
       <c r="H7">
-        <v>21.93612937485523</v>
+        <v>21.936129374855231</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9683.298827805244</v>
+        <v>9683.2988278052435</v>
       </c>
       <c r="K7">
-        <v>93766276.18857442</v>
+        <v>93766276.188574418</v>
       </c>
       <c r="L7">
-        <v>821.558671627907</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>totResidencial_tcon</t>
-        </is>
+        <v>821.55867162790696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>143.531</v>
+        <v>143.53100000000001</v>
       </c>
       <c r="C8">
-        <v>1717.5585</v>
+        <v>1717.5585000000001</v>
       </c>
       <c r="D8">
         <v>4297.72</v>
@@ -678,13 +720,13 @@
         <v>10934.1525</v>
       </c>
       <c r="F8">
-        <v>3911003.183</v>
+        <v>3911003.1830000002</v>
       </c>
       <c r="G8">
-        <v>1.629212280827994</v>
+        <v>1.6292122808279941</v>
       </c>
       <c r="H8">
-        <v>5.323684605450285</v>
+        <v>5.3236846054502847</v>
       </c>
       <c r="I8">
         <v>4297.72</v>
@@ -696,35 +738,33 @@
         <v>21864057980.14991</v>
       </c>
       <c r="L8">
-        <v>24157.69361944186</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>totNoResidencial_tcon</t>
-        </is>
+        <v>24157.693619441859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-5353.956</v>
+        <v>-5353.9560000000001</v>
       </c>
       <c r="C9">
-        <v>645.817</v>
+        <v>645.81700000000001</v>
       </c>
       <c r="D9">
         <v>1729.588</v>
       </c>
       <c r="E9">
-        <v>5720.092000000001</v>
+        <v>5720.0920000000006</v>
       </c>
       <c r="F9">
-        <v>3190449.359</v>
+        <v>3190449.3590000002</v>
       </c>
       <c r="G9">
-        <v>2.098838929117386</v>
+        <v>2.0988389291173859</v>
       </c>
       <c r="H9">
-        <v>7.184301297161857</v>
+        <v>7.1843012971618574</v>
       </c>
       <c r="I9">
         <v>1729.588</v>
@@ -733,10 +773,10 @@
         <v>125050.9979155426</v>
       </c>
       <c r="K9">
-        <v>15637752079.67303</v>
+        <v>15637752079.673031</v>
       </c>
       <c r="L9">
-        <v>18304.55001116279</v>
+        <v>18304.550011162792</v>
       </c>
     </row>
   </sheetData>
